--- a/MainTop/16.10.2024/таня_WB/FIX.xlsx
+++ b/MainTop/16.10.2024/таня_WB/FIX.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -73,13 +73,7 @@
     <t xml:space="preserve">flower_pink1_horiz</t>
   </si>
   <si>
-    <t xml:space="preserve">flower_yellow1_vert</t>
-  </si>
-  <si>
     <t xml:space="preserve">flowers_abc1_vert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowers_asd_blue_vert</t>
   </si>
   <si>
     <t xml:space="preserve">flowers_pinks12_vert</t>
@@ -349,7 +343,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -564,7 +558,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H24" s="0" t="n">
@@ -572,7 +566,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H25" s="0" t="n">
@@ -580,7 +574,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="0" t="n">
@@ -588,108 +582,94 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>127</v>
+      </c>
       <c r="H27" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="I27" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I28" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>127</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>127</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>127</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
